--- a/data/типоразмер печатных плат.xlsx
+++ b/data/типоразмер печатных плат.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>высота</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>PINs (отверстий)</t>
+  </si>
+  <si>
+    <t>доп. место[мм]</t>
   </si>
 </sst>
 </file>
@@ -55,7 +58,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -229,11 +232,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +307,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,15 +619,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="7.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -598,8 +639,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -612,8 +657,14 @@
       <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -626,8 +677,16 @@
       <c r="D3" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="16">
+        <f>(A3-C3*0.254)*10</f>
+        <v>4.4399999999999995</v>
+      </c>
+      <c r="F3" s="16">
+        <f>(B3-D3*0.254)*10</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -640,8 +699,16 @@
       <c r="D4" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E9" si="0">(A4-C4*0.254)*10</f>
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" ref="F4:F9" si="1">(B4-D4*0.254)*10</f>
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -654,8 +721,16 @@
       <c r="D5" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>4.1199999999999992</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>11.419999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -668,8 +743,16 @@
       <c r="D6" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>3.9599999999999991</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -682,8 +765,16 @@
       <c r="D7" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999989</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
+        <v>13.320000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -691,59 +782,79 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>3.6400000000000077</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="1"/>
+        <v>12.839999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>18</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>8.2399999999999984</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="1"/>
+        <v>27.599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
@@ -804,10 +915,12 @@
       <c r="D25" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>